--- a/output/carin-rtpbc-Patient.xlsx
+++ b/output/carin-rtpbc-Patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="473">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -210,6 +210,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -330,6 +334,10 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -441,10 +449,6 @@
     <t>Patient.name.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -494,7 +498,7 @@
     <t>The use of a human name.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -537,7 +541,7 @@
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
+    <t>Patient family name</t>
   </si>
   <si>
     <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
@@ -559,16 +563,13 @@
   </si>
   <si>
     <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
+middle namefirst name, middle name</t>
+  </si>
+  <si>
+    <t>Patient given name(s)</t>
+  </si>
+  <si>
+    <t>One or more given names of the patient</t>
   </si>
   <si>
     <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
@@ -675,10 +676,10 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
-  </si>
-  <si>
-    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+    <t>Patient gender</t>
+  </si>
+  <si>
+    <t>The patient's administrative gender (male, female, other, unknown)</t>
   </si>
   <si>
     <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
@@ -687,10 +688,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
+    <t>Administrative gender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -703,15 +701,15 @@
   </si>
   <si>
     <t>Patient.birthDate</t>
+  </si>
+  <si>
+    <t>Patient birth date</t>
   </si>
   <si>
     <t xml:space="preserve">date
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual</t>
-  </si>
-  <si>
     <t>The date of birth for the individual.</t>
   </si>
   <si>
@@ -761,17 +759,17 @@
     <t>Patient.address</t>
   </si>
   <si>
+    <t>Patient address</t>
+  </si>
+  <si>
     <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>An address for the individual</t>
-  </si>
-  <si>
-    <t>An address for the individual.</t>
-  </si>
-  <si>
-    <t>Include patient address? NCPDP provider RTPBC doesn't include it.</t>
+    <t>The patient's home address</t>
+  </si>
+  <si>
+    <t>Address may be used by the payer to identify the patient's insurance records</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -784,6 +782,265 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Two Letter USPS alphabetic codes</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>Populate when not a US address</t>
+  </si>
+  <si>
+    <t>ISO 3166 2-character country codes</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23T00:00:00-05:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00-05:00"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -800,9 +1057,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -994,10 +1248,19 @@
     <t>Patient.contact.gender</t>
   </si>
   <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1054,10 +1317,6 @@
   </si>
   <si>
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1226,7 +1485,7 @@
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1378,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1390,7 +1649,7 @@
     <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="20.4921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1425,7 +1684,7 @@
     <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="35.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1871,7 +2130,7 @@
         <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>44</v>
@@ -1891,7 +2150,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1914,16 +2173,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1973,7 +2232,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1985,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>44</v>
@@ -2005,7 +2264,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2028,16 +2287,16 @@
         <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2063,13 +2322,13 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>44</v>
@@ -2087,7 +2346,7 @@
         <v>44</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -2099,7 +2358,7 @@
         <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>44</v>
@@ -2119,11 +2378,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2142,16 +2401,16 @@
         <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2201,7 +2460,7 @@
         <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -2213,10 +2472,10 @@
         <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>44</v>
@@ -2233,11 +2492,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2256,16 +2515,16 @@
         <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2315,7 +2574,7 @@
         <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -2330,7 +2589,7 @@
         <v>44</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>44</v>
@@ -2347,11 +2606,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2370,16 +2629,16 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2429,7 +2688,7 @@
         <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -2441,10 +2700,10 @@
         <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>44</v>
@@ -2461,11 +2720,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2484,19 +2743,19 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>44</v>
@@ -2545,7 +2804,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2557,10 +2816,10 @@
         <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>44</v>
@@ -2577,7 +2836,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2600,17 +2859,17 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2659,7 +2918,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2671,19 +2930,19 @@
         <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>44</v>
@@ -2691,7 +2950,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2714,71 +2973,71 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2789,16 +3048,16 @@
         <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>44</v>
@@ -2807,9 +3066,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2823,7 +3082,7 @@
         <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
@@ -2832,19 +3091,19 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2893,7 +3152,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2905,19 +3164,19 @@
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2925,7 +3184,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2948,13 +3207,13 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3005,7 +3264,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3020,7 +3279,7 @@
         <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>44</v>
@@ -3037,11 +3296,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3060,16 +3319,16 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3107,19 +3366,19 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3131,10 +3390,10 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>44</v>
@@ -3151,7 +3410,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3174,19 +3433,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3211,13 +3470,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3235,7 +3494,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3247,10 +3506,10 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>44</v>
@@ -3259,7 +3518,7 @@
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3267,7 +3526,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3290,19 +3549,19 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3351,7 +3610,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3363,10 +3622,10 @@
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>44</v>
@@ -3375,21 +3634,23 @@
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="E18" t="s" s="2">
         <v>51</v>
       </c>
@@ -3397,7 +3658,7 @@
         <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3406,16 +3667,16 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3465,7 +3726,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3477,10 +3738,10 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3489,29 +3750,31 @@
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="E19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
@@ -3520,7 +3783,7 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>175</v>
@@ -3591,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>179</v>
@@ -3634,7 +3897,7 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>182</v>
@@ -3703,7 +3966,7 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>185</v>
@@ -3746,7 +4009,7 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>188</v>
@@ -3815,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>191</v>
@@ -3929,7 +4192,7 @@
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>199</v>
@@ -4045,7 +4308,7 @@
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>207</v>
@@ -4063,7 +4326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>210</v>
       </c>
@@ -4071,7 +4334,9 @@
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="E24" t="s" s="2">
         <v>51</v>
       </c>
@@ -4079,7 +4344,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -4088,7 +4353,7 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>211</v>
@@ -4125,13 +4390,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4161,33 +4426,35 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="E25" t="s" s="2">
         <v>51</v>
       </c>
@@ -4195,7 +4462,7 @@
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>44</v>
@@ -4207,16 +4474,16 @@
         <v>221</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4265,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4277,27 +4544,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4320,19 +4587,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4381,7 +4648,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4393,41 +4660,43 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4439,16 +4708,16 @@
         <v>239</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4497,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4509,19 +4778,19 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4529,7 +4798,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4552,18 +4821,16 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4587,13 +4854,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4611,7 +4878,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4626,16 +4893,16 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4643,18 +4910,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4666,20 +4933,18 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4715,43 +4980,43 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4759,7 +5024,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4770,31 +5035,31 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4807,7 +5072,7 @@
         <v>44</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>44</v>
@@ -4819,13 +5084,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -4843,31 +5108,31 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4875,7 +5140,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4886,7 +5151,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -4895,23 +5160,21 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4923,7 +5186,7 @@
         <v>44</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>44</v>
@@ -4935,13 +5198,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -4959,31 +5222,31 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4991,7 +5254,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5011,19 +5274,23 @@
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5035,7 +5302,7 @@
         <v>44</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>44</v>
@@ -5071,7 +5338,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5083,10 +5350,10 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5095,48 +5362,46 @@
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5149,7 +5414,7 @@
         <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>44</v>
@@ -5185,7 +5450,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5197,10 +5462,10 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
@@ -5209,51 +5474,47 @@
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5265,7 +5526,7 @@
         <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>44</v>
@@ -5301,31 +5562,31 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5337,14 +5598,14 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5353,21 +5614,21 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
         <v>292</v>
       </c>
+      <c r="M35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5379,7 +5640,7 @@
         <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>44</v>
@@ -5391,13 +5652,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5415,73 +5676,71 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5505,10 +5764,10 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="Y36" t="s" s="2">
         <v>44</v>
@@ -5529,7 +5788,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5541,63 +5800,59 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5609,7 +5864,7 @@
         <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>44</v>
@@ -5645,39 +5900,39 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5691,27 +5946,27 @@
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5735,10 +5990,10 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>44</v>
@@ -5759,7 +6014,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5771,19 +6026,19 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5791,7 +6046,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5811,20 +6066,20 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5837,7 +6092,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -5849,13 +6104,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -5873,7 +6128,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5885,19 +6140,19 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5905,7 +6160,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5928,17 +6183,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5963,13 +6218,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -5987,7 +6242,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5996,22 +6251,22 @@
         <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6019,7 +6274,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6042,16 +6297,20 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>194</v>
+        <v>341</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6099,7 +6358,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6111,19 +6370,19 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6131,7 +6390,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6154,19 +6413,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6215,7 +6474,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6227,19 +6486,19 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>333</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6247,7 +6506,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6258,7 +6517,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6270,16 +6529,20 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6327,25 +6590,25 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6359,18 +6622,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6382,17 +6645,15 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6441,13 +6702,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6456,7 +6717,7 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6473,11 +6734,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6490,26 +6751,24 @@
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6557,7 +6816,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6569,10 +6828,10 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6589,42 +6848,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6649,13 +6908,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6673,31 +6932,31 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6705,7 +6964,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6716,7 +6975,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6728,19 +6987,17 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6765,13 +7022,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6789,31 +7046,31 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6821,18 +7078,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6844,18 +7101,18 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -6903,31 +7160,31 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>361</v>
+        <v>133</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6935,7 +7192,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6946,7 +7203,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -6955,22 +7212,22 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>367</v>
+        <v>206</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7019,31 +7276,31 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7051,7 +7308,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7062,31 +7319,29 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7135,31 +7390,31 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>333</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7167,7 +7422,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7190,16 +7445,18 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>396</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7223,13 +7480,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7247,7 +7504,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7259,19 +7516,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7279,18 +7536,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7302,18 +7559,18 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>402</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7361,31 +7618,31 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>144</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>123</v>
+        <v>407</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7393,43 +7650,39 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>286</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7477,25 +7730,25 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>93</v>
+        <v>412</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
@@ -7509,7 +7762,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7517,10 +7770,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7529,21 +7782,23 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7591,31 +7846,31 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7623,7 +7878,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7631,7 +7886,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7643,16 +7898,16 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>385</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
+        <v>138</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7679,13 +7934,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7703,10 +7958,10 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>384</v>
+        <v>139</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>51</v>
@@ -7718,10 +7973,10 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
@@ -7730,11 +7985,1387 @@
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7744,7 +9375,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/carin-rtpbc-Patient.xlsx
+++ b/output/carin-rtpbc-Patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -210,10 +210,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -334,10 +330,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -449,6 +441,10 @@
     <t>Patient.name.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -498,7 +494,7 @@
     <t>The use of a human name.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.0</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -541,7 +537,7 @@
 </t>
   </si>
   <si>
-    <t>Patient family name</t>
+    <t>Family name (often called 'Surname')</t>
   </si>
   <si>
     <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
@@ -563,13 +559,16 @@
   </si>
   <si>
     <t>first name
-middle namefirst name, middle name</t>
-  </si>
-  <si>
-    <t>Patient given name(s)</t>
-  </si>
-  <si>
-    <t>One or more given names of the patient</t>
+middle name</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
   </si>
   <si>
     <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
@@ -676,10 +675,10 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>Patient gender</t>
-  </si>
-  <si>
-    <t>The patient's administrative gender (male, female, other, unknown)</t>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
     <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
@@ -688,7 +687,10 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>Administrative gender</t>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -701,15 +703,15 @@
   </si>
   <si>
     <t>Patient.birthDate</t>
-  </si>
-  <si>
-    <t>Patient birth date</t>
   </si>
   <si>
     <t xml:space="preserve">date
 </t>
   </si>
   <si>
+    <t>The date of birth for the individual</t>
+  </si>
+  <si>
     <t>The date of birth for the individual.</t>
   </si>
   <si>
@@ -759,17 +761,17 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t>Patient address</t>
-  </si>
-  <si>
     <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>The patient's home address</t>
-  </si>
-  <si>
-    <t>Address may be used by the payer to identify the patient's insurance records</t>
+    <t>An address for the individual</t>
+  </si>
+  <si>
+    <t>An address for the individual.</t>
+  </si>
+  <si>
+    <t>Include patient address? NCPDP provider RTPBC doesn't include it.</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -782,265 +784,6 @@
   </si>
   <si>
     <t>PID-11</t>
-  </si>
-  <si>
-    <t>Patient.address.id</t>
-  </si>
-  <si>
-    <t>Patient.address.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>Patient.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Patient.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>Patient.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>Patient.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>Patient.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Two Letter USPS alphabetic codes</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>Patient.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>Patient.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>Populate when not a US address</t>
-  </si>
-  <si>
-    <t>ISO 3166 2-character country codes</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00-05:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00-05:00"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1057,6 +800,9 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -1248,19 +994,10 @@
     <t>Patient.contact.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
-  </si>
-  <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
-  </si>
-  <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1317,6 +1054,10 @@
   </si>
   <si>
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1485,7 +1226,7 @@
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.0</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1637,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1649,7 +1390,7 @@
     <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1684,7 +1425,7 @@
     <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.6015625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="35.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2130,7 +1871,7 @@
         <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>44</v>
@@ -2150,7 +1891,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2173,16 +1914,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2232,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2244,7 +1985,7 @@
         <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>44</v>
@@ -2264,7 +2005,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2287,16 +2028,16 @@
         <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2322,31 +2063,31 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -2358,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>44</v>
@@ -2378,11 +2119,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2401,16 +2142,16 @@
         <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2460,7 +2201,7 @@
         <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -2472,10 +2213,10 @@
         <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>44</v>
@@ -2492,11 +2233,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2515,16 +2256,16 @@
         <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2574,7 +2315,7 @@
         <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -2589,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>44</v>
@@ -2606,11 +2347,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2629,16 +2370,16 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2688,7 +2429,7 @@
         <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -2700,10 +2441,10 @@
         <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>44</v>
@@ -2720,11 +2461,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2743,19 +2484,19 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>44</v>
@@ -2804,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2816,10 +2557,10 @@
         <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>44</v>
@@ -2836,7 +2577,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2859,17 +2600,17 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2918,7 +2659,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2930,19 +2671,19 @@
         <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>44</v>
@@ -2950,7 +2691,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2973,26 +2714,26 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="Q12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3036,7 +2777,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3048,27 +2789,27 @@
         <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3082,7 +2823,7 @@
         <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
@@ -3091,19 +2832,19 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -3152,7 +2893,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3164,19 +2905,19 @@
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -3184,7 +2925,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3207,13 +2948,13 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3264,7 +3005,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3279,7 +3020,7 @@
         <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>44</v>
@@ -3296,11 +3037,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3319,16 +3060,16 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3366,19 +3107,19 @@
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AC15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AC15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3390,10 +3131,10 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>44</v>
@@ -3410,7 +3151,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3433,19 +3174,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3470,31 +3211,31 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3506,19 +3247,19 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3526,7 +3267,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3549,19 +3290,19 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3610,7 +3351,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3622,35 +3363,33 @@
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>51</v>
       </c>
@@ -3658,7 +3397,7 @@
         <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3667,16 +3406,16 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3726,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3738,43 +3477,41 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>44</v>
@@ -3783,7 +3520,7 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>175</v>
@@ -3854,7 +3591,7 @@
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>179</v>
@@ -3897,7 +3634,7 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>182</v>
@@ -3966,7 +3703,7 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>185</v>
@@ -4009,7 +3746,7 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>188</v>
@@ -4078,7 +3815,7 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>191</v>
@@ -4192,7 +3929,7 @@
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>199</v>
@@ -4308,7 +4045,7 @@
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>207</v>
@@ -4326,7 +4063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>210</v>
       </c>
@@ -4334,9 +4071,7 @@
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D24" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>51</v>
       </c>
@@ -4344,7 +4079,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -4353,7 +4088,7 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>211</v>
@@ -4390,13 +4125,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4426,35 +4161,33 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D25" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>51</v>
       </c>
@@ -4462,7 +4195,7 @@
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>44</v>
@@ -4474,16 +4207,16 @@
         <v>221</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4532,7 +4265,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4544,27 +4277,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4587,19 +4320,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4648,7 +4381,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4660,43 +4393,41 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D27" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4708,16 +4439,16 @@
         <v>239</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4766,7 +4497,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4778,19 +4509,19 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4798,7 +4529,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4821,16 +4552,18 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4854,13 +4587,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4878,7 +4611,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4893,16 +4626,16 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4910,18 +4643,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4933,18 +4666,20 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4980,43 +4715,43 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -5024,7 +4759,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5035,31 +4770,31 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -5072,7 +4807,7 @@
         <v>44</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>44</v>
@@ -5084,13 +4819,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5108,31 +4843,31 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5140,7 +4875,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5151,7 +4886,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5160,21 +4895,23 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5186,7 +4923,7 @@
         <v>44</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>44</v>
@@ -5198,13 +4935,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5222,31 +4959,31 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5254,7 +4991,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5274,23 +5011,19 @@
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5302,7 +5035,7 @@
         <v>44</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>44</v>
@@ -5338,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5350,10 +5083,10 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5362,46 +5095,48 @@
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5414,7 +5149,7 @@
         <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>44</v>
@@ -5450,7 +5185,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5462,10 +5197,10 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
@@ -5474,47 +5209,51 @@
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5526,7 +5265,7 @@
         <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>44</v>
@@ -5562,22 +5301,22 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -5586,7 +5325,7 @@
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5598,14 +5337,14 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5614,21 +5353,21 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5640,26 +5379,26 @@
         <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5676,71 +5415,73 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5764,10 +5505,10 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
         <v>44</v>
@@ -5788,7 +5529,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5800,59 +5541,63 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5864,7 +5609,7 @@
         <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>44</v>
@@ -5900,39 +5645,39 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5946,27 +5691,27 @@
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5990,10 +5735,10 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>44</v>
@@ -6014,7 +5759,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6026,19 +5771,19 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -6046,7 +5791,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6066,20 +5811,20 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -6092,7 +5837,7 @@
         <v>44</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>44</v>
@@ -6104,13 +5849,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6128,7 +5873,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6140,19 +5885,19 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6160,7 +5905,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6183,17 +5928,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6218,13 +5963,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6242,7 +5987,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6251,22 +5996,22 @@
         <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6274,7 +6019,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6297,20 +6042,16 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>341</v>
+        <v>194</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6358,7 +6099,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6370,19 +6111,19 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6390,7 +6131,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6413,19 +6154,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6474,7 +6215,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6486,19 +6227,19 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>125</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6506,7 +6247,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6517,7 +6258,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6529,20 +6270,16 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6590,25 +6327,25 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6622,18 +6359,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6645,15 +6382,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6702,13 +6441,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6717,7 +6456,7 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6734,11 +6473,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6751,24 +6490,26 @@
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6816,7 +6557,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6828,10 +6569,10 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6848,42 +6589,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6908,13 +6649,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6932,31 +6673,31 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>94</v>
+        <v>344</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -6964,7 +6705,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6975,7 +6716,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6987,17 +6728,19 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>331</v>
+        <v>116</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7022,13 +6765,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7046,31 +6789,31 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7078,18 +6821,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7101,18 +6844,18 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>128</v>
+        <v>357</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7160,31 +6903,31 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7192,7 +6935,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7203,7 +6946,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -7212,22 +6955,22 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>206</v>
+        <v>367</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7276,31 +7019,31 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7308,7 +7051,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7319,29 +7062,31 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7390,31 +7135,31 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7422,7 +7167,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7445,18 +7190,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7480,13 +7223,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7504,7 +7247,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>394</v>
+        <v>138</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7516,19 +7259,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7536,18 +7279,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7559,18 +7302,18 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>402</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7618,31 +7361,31 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>144</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7650,39 +7393,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>286</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7730,25 +7477,25 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>288</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>412</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
@@ -7762,7 +7509,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7770,10 +7517,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7782,23 +7529,21 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7846,31 +7591,31 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>418</v>
+        <v>111</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>123</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7878,7 +7623,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7886,7 +7631,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>51</v>
@@ -7898,16 +7643,16 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7934,13 +7679,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7958,10 +7703,10 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>139</v>
+        <v>384</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>51</v>
@@ -7973,10 +7718,10 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
@@ -7985,1387 +7730,11 @@
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN67" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9375,7 +7744,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
